--- a/用例设计/售货机.xlsx
+++ b/用例设计/售货机.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lan\Desktop\week\用例设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02A801-9B69-4D22-AC1B-B7296FD28C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5D701D-E04F-4060-98C0-13D768152189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,25 +65,11 @@
     <t>c3</t>
   </si>
   <si>
-    <t>e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
     <t>c4:没有零钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +121,22 @@
     <t>售货模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">                               e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,10 +190,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,8 +280,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>172118</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="墨迹 64">
@@ -295,7 +300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="墨迹 64">
@@ -329,19 +334,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9946</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279273</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>81284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>144586</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413913</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25010</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="149" name="墨迹 148">
@@ -355,12 +360,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6040256" y="3024181"/>
+            <a:off x="5705239" y="3024181"/>
             <a:ext cx="134640" cy="127657"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="149" name="墨迹 148">
@@ -405,8 +410,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>75524</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="墨迹 153">
@@ -425,7 +430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="墨迹 153">
@@ -470,8 +475,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>72189</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="墨迹 160">
@@ -490,7 +495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="墨迹 160">
@@ -525,18 +530,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>640948</xdr:colOff>
+      <xdr:colOff>246810</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162057</xdr:rowOff>
+      <xdr:rowOff>142350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156466</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>10629</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174853</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="168" name="墨迹 167">
@@ -550,12 +555,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5644080" y="3410583"/>
-            <a:ext cx="202320" cy="209520"/>
+            <a:off x="5672776" y="3453109"/>
+            <a:ext cx="198690" cy="216434"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="168" name="墨迹 167">
@@ -600,8 +605,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>55383</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="墨迹 170">
@@ -620,7 +625,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="墨迹 170">
@@ -665,8 +670,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>59722</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="173" name="墨迹 172">
@@ -685,7 +690,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="173" name="墨迹 172">
@@ -719,19 +724,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425668</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095703</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576868</xdr:colOff>
+      <xdr:colOff>130178</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104703</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="墨迹 177">
@@ -745,12 +750,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5428800" y="3431463"/>
+            <a:off x="5404944" y="3497153"/>
             <a:ext cx="151200" cy="102240"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="墨迹 177">
@@ -795,8 +800,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>60082</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="墨迹 180">
@@ -815,7 +820,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="墨迹 180">
@@ -850,18 +855,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>681268</xdr:colOff>
+      <xdr:colOff>267424</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114916</xdr:rowOff>
+      <xdr:rowOff>108347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165106</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434434</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152242</xdr:rowOff>
+      <xdr:rowOff>145673</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="墨迹 183">
@@ -875,12 +880,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5684400" y="3904863"/>
-            <a:ext cx="170640" cy="217800"/>
+            <a:off x="5693390" y="3970899"/>
+            <a:ext cx="167010" cy="221257"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="墨迹 183">
@@ -925,8 +930,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>45076</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="墨迹 184">
@@ -945,7 +950,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="墨迹 184">
@@ -990,8 +995,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20122</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="187" name="墨迹 186">
@@ -1010,7 +1015,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="187" name="墨迹 186">
@@ -1055,8 +1060,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>70162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="墨迹 188">
@@ -1075,7 +1080,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="墨迹 188">
@@ -1110,18 +1115,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>455908</xdr:colOff>
+      <xdr:colOff>2649</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>100156</xdr:rowOff>
+      <xdr:rowOff>93587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>596668</xdr:colOff>
+      <xdr:colOff>143409</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>31282</xdr:rowOff>
+      <xdr:rowOff>24713</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="196" name="墨迹 195">
@@ -1135,12 +1140,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5459040" y="3890103"/>
-            <a:ext cx="140760" cy="111600"/>
+            <a:off x="5428615" y="3956139"/>
+            <a:ext cx="140760" cy="115057"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="196" name="墨迹 195">
@@ -1185,8 +1190,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>75297</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="200" name="墨迹 199">
@@ -1205,7 +1210,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="200" name="墨迹 199">
@@ -1250,8 +1255,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60404</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="墨迹 203">
@@ -1270,7 +1275,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="墨迹 203">
@@ -1315,8 +1320,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>105404</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="墨迹 207">
@@ -1335,7 +1340,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="墨迹 207">
@@ -1380,8 +1385,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>105271</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="214" name="墨迹 213">
@@ -1400,7 +1405,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="214" name="墨迹 213">
@@ -1445,8 +1450,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>45379</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="216" name="墨迹 215">
@@ -1465,7 +1470,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="216" name="墨迹 215">
@@ -1510,8 +1515,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104059</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="219" name="墨迹 218">
@@ -1530,7 +1535,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="219" name="墨迹 218">
@@ -1575,8 +1580,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>135492</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="墨迹 222">
@@ -1595,7 +1600,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="墨迹 222">
@@ -1629,19 +1634,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>205426</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501029</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>145231</xdr:rowOff>
+      <xdr:rowOff>164938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1489186</xdr:colOff>
+      <xdr:colOff>1101617</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90284</xdr:rowOff>
+      <xdr:rowOff>109991</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="225" name="墨迹 224">
@@ -1655,12 +1660,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5895360" y="2671863"/>
-            <a:ext cx="1283760" cy="306000"/>
+            <a:off x="5926995" y="2739972"/>
+            <a:ext cx="1283760" cy="312916"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="225" name="墨迹 224">
@@ -1694,19 +1699,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175186</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451082</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124977</xdr:rowOff>
+      <xdr:rowOff>144684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1529146</xdr:colOff>
+      <xdr:colOff>1121870</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>65103</xdr:rowOff>
+      <xdr:rowOff>84810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="227" name="墨迹 226">
@@ -1720,12 +1725,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5865120" y="3373503"/>
-            <a:ext cx="1353960" cy="120600"/>
+            <a:off x="5877048" y="3455443"/>
+            <a:ext cx="1353960" cy="124057"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="227" name="墨迹 226">
@@ -1759,19 +1764,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160066</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468807</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>44962</xdr:rowOff>
+      <xdr:rowOff>38393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1534186</xdr:colOff>
+      <xdr:colOff>1159755</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>125602</xdr:rowOff>
+      <xdr:rowOff>119033</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="墨迹 228">
@@ -1785,12 +1790,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5850000" y="4015383"/>
+            <a:off x="5894773" y="4084876"/>
             <a:ext cx="1374120" cy="80640"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="墨迹 228">
@@ -2750,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2781,13 +2786,13 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -2807,8 +2812,8 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,8 +2835,8 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
+      <c r="G19" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,64 +2850,64 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
+      <c r="G23" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>26</v>
+      <c r="E27" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
